--- a/BackTest/2019-10-26 BackTest XRP.xlsx
+++ b/BackTest/2019-10-26 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-447077.6100428699</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-447077.6100428699</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>332</v>
@@ -523,7 +523,7 @@
         <v>-447077.6100428699</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>332</v>
@@ -562,7 +562,7 @@
         <v>-507130.01864287</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>332</v>
@@ -601,7 +601,7 @@
         <v>-470215.2915428699</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>331</v>
@@ -640,7 +640,7 @@
         <v>-470215.2915428699</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>332</v>
@@ -679,7 +679,7 @@
         <v>-476732.6309452699</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>332</v>
@@ -718,7 +718,7 @@
         <v>-476732.6309452699</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>331</v>
@@ -757,7 +757,7 @@
         <v>-476732.6309452699</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>331</v>
@@ -796,7 +796,7 @@
         <v>-476732.6309452699</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>331</v>
@@ -835,7 +835,7 @@
         <v>-476732.6309452699</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>331</v>
@@ -874,7 +874,7 @@
         <v>-476732.6309452699</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>331</v>
@@ -913,7 +913,7 @@
         <v>-476732.6309452699</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>331</v>
@@ -952,7 +952,7 @@
         <v>-476732.6309452699</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>331</v>
@@ -991,7 +991,7 @@
         <v>-380447.0042452699</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>331</v>
@@ -1030,7 +1030,7 @@
         <v>-417244.4375139399</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>332</v>
@@ -1069,7 +1069,7 @@
         <v>-217922.5278826099</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>331</v>
@@ -1108,7 +1108,7 @@
         <v>-217922.5278826099</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>332</v>
@@ -1147,7 +1147,7 @@
         <v>-217922.5278826099</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>332</v>
@@ -1186,7 +1186,7 @@
         <v>-217922.5278826099</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>332</v>
@@ -1225,7 +1225,7 @@
         <v>-217922.5278826099</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>332</v>
@@ -1264,7 +1264,7 @@
         <v>-68442.79418260991</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>332</v>
@@ -1303,7 +1303,7 @@
         <v>-94391.30898260992</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>333</v>
@@ -1342,9 +1342,11 @@
         <v>-94390.30898260992</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>332</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1379,7 +1381,7 @@
         <v>-328886.1192826099</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>333</v>
@@ -1418,7 +1420,7 @@
         <v>-328886.1192826099</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>332</v>
@@ -1457,7 +1459,7 @@
         <v>-314708.1613826099</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>332</v>
@@ -1496,9 +1498,11 @@
         <v>-318635.8656826099</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>333</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1533,9 +1537,11 @@
         <v>-318635.8656826099</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>332</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1570,7 +1576,7 @@
         <v>-298506.6277826099</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>332</v>
@@ -1609,7 +1615,7 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>333</v>
@@ -1648,7 +1654,7 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>332</v>
@@ -1687,9 +1693,11 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>332</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1724,9 +1732,11 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>332</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1761,9 +1771,11 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>332</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1798,9 +1810,11 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>332</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1835,9 +1849,11 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>332</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1872,9 +1888,11 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>332</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1909,9 +1927,11 @@
         <v>-486935.9956738999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>332</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1946,9 +1966,11 @@
         <v>-486935.9956738999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>331</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1983,9 +2005,11 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>331</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2020,9 +2044,11 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>332</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2057,9 +2083,11 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>332</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2094,9 +2122,11 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>332</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2131,9 +2161,11 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>332</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2168,9 +2200,11 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>332</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2205,9 +2239,11 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>332</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2242,9 +2278,11 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>332</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2279,9 +2317,11 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>332</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2316,9 +2356,11 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>332</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2353,9 +2395,11 @@
         <v>-437618.9989738999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>332</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2390,9 +2434,11 @@
         <v>-443110.8156739</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>333</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2427,9 +2473,11 @@
         <v>-443110.8156739</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>332</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2464,9 +2512,11 @@
         <v>-443110.8156739</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>332</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2501,9 +2551,11 @@
         <v>-443110.8156739</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>332</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2538,7 +2590,7 @@
         <v>-443110.8156739</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>332</v>
@@ -2577,9 +2629,11 @@
         <v>-443110.8156739</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>332</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2614,7 +2668,7 @@
         <v>-419736.8568738999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>332</v>
@@ -2653,7 +2707,7 @@
         <v>-461393.8701738999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>333</v>
@@ -2692,7 +2746,7 @@
         <v>-461393.8701738999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>332</v>
@@ -2731,7 +2785,7 @@
         <v>-461393.8701738999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>332</v>
@@ -2770,7 +2824,7 @@
         <v>-460892.7701738999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>332</v>
@@ -2809,9 +2863,11 @@
         <v>-461249.8671739</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>333</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2846,9 +2902,11 @@
         <v>-461249.8671739</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>332</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2883,9 +2941,11 @@
         <v>-461249.8671739</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>332</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2920,9 +2980,11 @@
         <v>-461249.8671739</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>332</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2957,9 +3019,11 @@
         <v>-461249.8671739</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>332</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2994,7 +3058,7 @@
         <v>-461249.8671739</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>332</v>
@@ -3033,7 +3097,7 @@
         <v>-461249.8671739</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>332</v>
@@ -3072,7 +3136,7 @@
         <v>-457918.60372345</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>332</v>
@@ -3111,7 +3175,7 @@
         <v>-475860.82902345</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>333</v>
@@ -3150,7 +3214,7 @@
         <v>-380535.52942345</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>331</v>
@@ -3189,7 +3253,7 @@
         <v>-443591.47602435</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>332</v>
@@ -3228,7 +3292,7 @@
         <v>-436839.6345243501</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>331</v>
@@ -3267,7 +3331,7 @@
         <v>-436839.6345243501</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>332</v>
@@ -3306,7 +3370,7 @@
         <v>-436839.6345243501</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>332</v>
@@ -3345,7 +3409,7 @@
         <v>-407558.84115619</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>332</v>
@@ -3384,7 +3448,7 @@
         <v>-412366.51755619</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>333</v>
@@ -3423,7 +3487,7 @@
         <v>-412366.51755619</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>332</v>
@@ -3462,7 +3526,7 @@
         <v>-412366.51755619</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>332</v>
@@ -3501,7 +3565,7 @@
         <v>-412366.51755619</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>332</v>
@@ -3540,7 +3604,7 @@
         <v>-412366.51755619</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>332</v>
@@ -3579,7 +3643,7 @@
         <v>-412366.51755619</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>332</v>
@@ -3618,7 +3682,7 @@
         <v>-412366.51755619</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>332</v>
@@ -3657,7 +3721,7 @@
         <v>-412366.51755619</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>332</v>
@@ -3696,7 +3760,7 @@
         <v>-412366.51755619</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>332</v>
@@ -3735,7 +3799,7 @@
         <v>-412366.51755619</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>332</v>
@@ -3774,7 +3838,7 @@
         <v>-412366.51755619</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>332</v>
@@ -3813,7 +3877,7 @@
         <v>-386686.24395619</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>332</v>
@@ -3852,7 +3916,7 @@
         <v>-417145.45515619</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>333</v>
@@ -3891,7 +3955,7 @@
         <v>-417145.45515619</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>332</v>
@@ -3930,7 +3994,7 @@
         <v>-417145.45515619</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>332</v>
@@ -3969,7 +4033,7 @@
         <v>-367627.24805619</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>332</v>
@@ -4008,7 +4072,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>333</v>
@@ -4047,7 +4111,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>332</v>
@@ -4086,7 +4150,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>332</v>
@@ -4125,7 +4189,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>332</v>
@@ -4164,7 +4228,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>332</v>
@@ -4203,9 +4267,11 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>332</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4240,9 +4306,11 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>332</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4277,7 +4345,7 @@
         <v>-510856.38635619</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>332</v>
@@ -4316,7 +4384,7 @@
         <v>-500743.43435619</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>332</v>
@@ -4355,7 +4423,7 @@
         <v>-500743.43435619</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>333</v>
@@ -4394,9 +4462,11 @@
         <v>-500743.43435619</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>333</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4431,9 +4501,11 @@
         <v>-477464.56987895</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>333</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4468,9 +4540,11 @@
         <v>-481427.40327895</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>334</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4505,9 +4579,11 @@
         <v>-481427.40327895</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>333</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4542,9 +4618,11 @@
         <v>-481427.40327895</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>333</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4579,9 +4657,11 @@
         <v>-481427.40327895</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>333</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4616,9 +4696,11 @@
         <v>-481427.40327895</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>333</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4653,9 +4735,11 @@
         <v>-481427.40327895</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>333</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4690,9 +4774,11 @@
         <v>-481427.40327895</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>333</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4727,9 +4813,11 @@
         <v>-108050.07977895</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>333</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4764,9 +4852,11 @@
         <v>-416378.12237895</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>334</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4801,9 +4891,11 @@
         <v>-416378.12237895</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>333</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4838,9 +4930,11 @@
         <v>-416003.85897895</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>333</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4875,9 +4969,11 @@
         <v>-524436.7814789501</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>334</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4912,9 +5008,11 @@
         <v>-524436.7814789501</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>333</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4949,9 +5047,11 @@
         <v>-523184.12557895</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>333</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5023,9 +5123,11 @@
         <v>-523544.06737895</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>334</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5060,9 +5162,11 @@
         <v>-523544.06737895</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>333</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5134,9 +5238,11 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>333</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5171,9 +5277,11 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>334</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5208,9 +5316,11 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>334</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5245,9 +5355,11 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>334</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5282,9 +5394,11 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>334</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5319,9 +5433,11 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>334</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5356,9 +5472,11 @@
         <v>-515521.64154303</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>334</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5430,9 +5548,11 @@
         <v>-161798.85244303</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>335</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -8427,7 +8547,7 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8464,7 +8584,7 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8501,7 +8621,7 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8538,7 +8658,7 @@
         <v>11344881.37383715</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8575,7 +8695,7 @@
         <v>10768313.65483715</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8612,7 +8732,7 @@
         <v>10427753.13103715</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8760,7 +8880,7 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8834,7 +8954,7 @@
         <v>10468970.54933715</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8871,7 +8991,7 @@
         <v>10515154.36733715</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8908,7 +9028,7 @@
         <v>10376389.33023715</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9537,18 +9657,16 @@
         <v>6375125.597570498</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
@@ -9578,11 +9696,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9615,11 +9729,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9648,15 +9758,11 @@
         <v>5513448.603870497</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9689,11 +9795,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9726,11 +9828,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9763,11 +9861,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9800,11 +9894,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9837,11 +9927,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9874,11 +9960,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9911,11 +9993,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9948,11 +10026,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9985,11 +10059,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10022,11 +10092,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10059,11 +10125,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10096,11 +10158,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10133,11 +10191,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10170,11 +10224,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10207,11 +10257,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10244,11 +10290,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10281,11 +10323,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10356,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10355,11 +10389,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10392,11 +10422,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10429,11 +10455,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10466,11 +10488,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10503,11 +10521,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10540,11 +10554,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10577,11 +10587,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10614,11 +10620,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10651,11 +10653,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10688,11 +10686,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10725,11 +10719,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10762,11 +10752,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10799,11 +10785,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10836,11 +10818,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10873,11 +10851,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10910,11 +10884,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10947,11 +10917,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10984,11 +10950,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11021,11 +10983,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11058,11 +11016,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11095,11 +11049,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11132,11 +11082,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11169,11 +11115,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11206,11 +11148,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11243,11 +11181,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11280,11 +11214,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11317,11 +11247,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11354,11 +11280,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11391,11 +11313,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11428,11 +11346,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11465,11 +11379,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11502,11 +11412,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11445,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11576,11 +11478,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11613,11 +11511,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11650,11 +11544,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11687,11 +11577,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11724,11 +11610,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11761,11 +11643,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11798,11 +11676,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11835,11 +11709,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11872,11 +11742,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11909,11 +11775,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11946,11 +11808,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11983,11 +11841,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12020,11 +11874,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12057,11 +11907,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12094,11 +11940,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12131,11 +11973,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12168,11 +12006,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12205,11 +12039,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12242,11 +12072,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12279,11 +12105,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12316,11 +12138,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12353,11 +12171,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12390,11 +12204,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12427,11 +12237,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12464,11 +12270,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12501,11 +12303,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12538,11 +12336,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12575,11 +12369,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12612,11 +12402,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12649,11 +12435,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12686,11 +12468,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12723,11 +12501,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +12534,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12797,11 +12567,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12834,11 +12600,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12871,11 +12633,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12908,11 +12666,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12945,11 +12699,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12982,11 +12732,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13019,11 +12765,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13056,11 +12798,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13093,11 +12831,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13130,11 +12864,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13167,11 +12897,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13204,11 +12930,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13241,11 +12963,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13278,11 +12996,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13315,11 +13029,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13352,11 +13062,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13389,11 +13095,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13426,11 +13128,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13463,11 +13161,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13500,11 +13194,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13537,11 +13227,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13574,11 +13260,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13611,11 +13293,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13648,11 +13326,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13685,11 +13359,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13722,11 +13392,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13759,11 +13425,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13796,11 +13458,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13833,11 +13491,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13870,11 +13524,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13907,11 +13557,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13944,11 +13590,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +13623,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14018,11 +13656,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14055,11 +13689,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14092,11 +13722,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14129,11 +13755,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14166,11 +13788,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14203,11 +13821,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14240,11 +13854,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14277,11 +13887,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14314,11 +13920,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14351,11 +13953,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14388,11 +13986,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14425,11 +14019,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14462,11 +14052,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14499,11 +14085,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14536,11 +14118,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14573,11 +14151,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14610,11 +14184,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14647,11 +14217,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14684,11 +14250,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14721,11 +14283,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14758,11 +14316,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14795,11 +14349,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14832,11 +14382,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14869,11 +14415,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14906,11 +14448,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14943,11 +14481,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14980,11 +14514,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15017,11 +14547,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15054,11 +14580,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15091,11 +14613,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15128,11 +14646,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15165,11 +14679,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +14712,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15239,11 +14745,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15276,11 +14778,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15313,11 +14811,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15350,11 +14844,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15387,11 +14877,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15424,11 +14910,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15461,11 +14943,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15498,11 +14976,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15535,11 +15009,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15572,11 +15042,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15609,11 +15075,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15646,11 +15108,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15683,11 +15141,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15720,11 +15174,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15757,11 +15207,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15794,11 +15240,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15831,11 +15273,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15868,11 +15306,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15905,11 +15339,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15938,16 +15368,14 @@
         <v>4163439.782317036</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
       <c r="M417" t="inlineStr"/>
     </row>
     <row r="418">
@@ -15973,7 +15401,7 @@
         <v>4166958.928179836</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16006,7 +15434,7 @@
         <v>4166958.928179836</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16039,7 +15467,7 @@
         <v>4166958.928179836</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16072,7 +15500,7 @@
         <v>4166958.928179836</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16105,7 +15533,7 @@
         <v>4166958.928179836</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16138,7 +15566,7 @@
         <v>4166958.928179836</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16171,7 +15599,7 @@
         <v>4306377.062679837</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16204,7 +15632,7 @@
         <v>4269434.792679837</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16237,7 +15665,7 @@
         <v>4269434.792679837</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16270,7 +15698,7 @@
         <v>4269434.792679837</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16303,7 +15731,7 @@
         <v>4269434.792679837</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16336,7 +15764,7 @@
         <v>4269434.792679837</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16369,7 +15797,7 @@
         <v>4269434.792679837</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16402,7 +15830,7 @@
         <v>4307601.945479837</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16468,7 +15896,7 @@
         <v>4307496.240379837</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16501,7 +15929,7 @@
         <v>4307496.240379837</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16534,7 +15962,7 @@
         <v>4307496.240379837</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16567,7 +15995,7 @@
         <v>4307496.240379837</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16600,7 +16028,7 @@
         <v>4307496.240379837</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16633,7 +16061,7 @@
         <v>4329413.358379837</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16699,7 +16127,7 @@
         <v>4753585.159485757</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16732,7 +16160,7 @@
         <v>4700202.071635038</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16765,7 +16193,7 @@
         <v>4700202.071635038</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16798,7 +16226,7 @@
         <v>4700202.071635038</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16831,7 +16259,7 @@
         <v>4685245.076335038</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16864,7 +16292,7 @@
         <v>4687956.730235038</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -18877,7 +18305,7 @@
         <v>4777099.492548998</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18910,7 +18338,7 @@
         <v>4777099.492548998</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18976,7 +18404,7 @@
         <v>4778384.733248998</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19009,7 +18437,7 @@
         <v>4778384.733248998</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19240,7 +18668,7 @@
         <v>4886836.409980799</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19273,7 +18701,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19306,7 +18734,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19372,7 +18800,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19405,7 +18833,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19438,7 +18866,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19537,7 +18965,7 @@
         <v>4799324.297007889</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19636,7 +19064,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19669,7 +19097,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19702,7 +19130,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19735,7 +19163,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19768,7 +19196,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19801,7 +19229,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19900,7 +19328,7 @@
         <v>5004190.865907028</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19933,7 +19361,7 @@
         <v>5022057.640107028</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19966,7 +19394,7 @@
         <v>4902756.487807028</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19999,7 +19427,7 @@
         <v>4902756.487807028</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20032,7 +19460,7 @@
         <v>4902756.487807028</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20065,7 +19493,7 @@
         <v>5036142.523381758</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20098,7 +19526,7 @@
         <v>4842283.083556487</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -22606,7 +22034,7 @@
         <v>4813606.847250558</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22639,7 +22067,7 @@
         <v>4815149.039650558</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22672,7 +22100,7 @@
         <v>4808072.159150558</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22705,7 +22133,7 @@
         <v>4837523.016450558</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22738,7 +22166,7 @@
         <v>4803461.755260358</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22969,7 +22397,7 @@
         <v>5033497.666713098</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23002,7 +22430,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23035,7 +22463,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23068,7 +22496,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23101,7 +22529,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23134,7 +22562,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23167,7 +22595,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -25312,7 +24740,7 @@
         <v>6758890.037818479</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25510,7 +24938,7 @@
         <v>9198675.603919359</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25543,7 +24971,7 @@
         <v>9198675.603919359</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25576,7 +25004,7 @@
         <v>9157141.594423288</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25609,7 +25037,7 @@
         <v>9157141.594423288</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25642,7 +25070,7 @@
         <v>9900041.838523289</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25675,7 +25103,7 @@
         <v>9900041.838523289</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25708,7 +25136,7 @@
         <v>11110662.68763052</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25741,7 +25169,7 @@
         <v>9309574.527001768</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25774,7 +25202,7 @@
         <v>8843723.610901769</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25807,7 +25235,7 @@
         <v>9236486.338072348</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25840,7 +25268,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25873,7 +25301,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25906,7 +25334,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25939,7 +25367,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25972,7 +25400,7 @@
         <v>8479374.556872347</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26005,7 +25433,7 @@
         <v>9031687.580372347</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26038,7 +25466,7 @@
         <v>8098932.124072347</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26071,7 +25499,7 @@
         <v>8098932.124072347</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26104,7 +25532,7 @@
         <v>8098932.124072347</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26137,7 +25565,7 @@
         <v>8098932.124072347</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26170,7 +25598,7 @@
         <v>8954159.903672347</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26203,7 +25631,7 @@
         <v>8954159.903672347</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26236,7 +25664,7 @@
         <v>8274496.824472347</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26269,7 +25697,7 @@
         <v>7388880.482935737</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26302,7 +25730,7 @@
         <v>7005592.746968137</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26335,7 +25763,7 @@
         <v>8680734.598076006</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26368,7 +25796,7 @@
         <v>8680734.598076006</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26401,7 +25829,7 @@
         <v>7882061.280661927</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26434,7 +25862,7 @@
         <v>6981573.687522947</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26467,7 +25895,7 @@
         <v>7861398.924371527</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26500,7 +25928,7 @@
         <v>6767998.960040087</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26533,7 +25961,7 @@
         <v>7464599.357484917</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26566,7 +25994,7 @@
         <v>7464599.357484917</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26599,7 +26027,7 @@
         <v>6853442.579384917</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26632,7 +26060,7 @@
         <v>6853442.579384917</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26665,7 +26093,7 @@
         <v>6853442.579384917</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26698,7 +26126,7 @@
         <v>6853442.579384917</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26731,7 +26159,7 @@
         <v>6853442.579384917</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26764,7 +26192,7 @@
         <v>7022153.524540277</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26797,7 +26225,7 @@
         <v>6947874.283940277</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26830,7 +26258,7 @@
         <v>7419887.593118807</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26863,7 +26291,7 @@
         <v>8494730.226318806</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26896,7 +26324,7 @@
         <v>9380868.831635706</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26929,7 +26357,7 @@
         <v>9380868.831635706</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26962,7 +26390,7 @@
         <v>9742370.341006286</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26995,7 +26423,7 @@
         <v>9136721.767635897</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27028,7 +26456,7 @@
         <v>8905976.256435897</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27061,7 +26489,7 @@
         <v>9417099.730735898</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27094,7 +26522,7 @@
         <v>8675209.532031408</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27127,7 +26555,7 @@
         <v>9249234.797331408</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27160,7 +26588,7 @@
         <v>8807666.965931408</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27193,7 +26621,7 @@
         <v>9031773.974931408</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27226,7 +26654,7 @@
         <v>8004660.160296198</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27259,7 +26687,7 @@
         <v>8004660.160296198</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27292,7 +26720,7 @@
         <v>8352071.536296198</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27325,7 +26753,7 @@
         <v>8352071.536296198</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27358,7 +26786,7 @@
         <v>8198136.828176938</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27391,7 +26819,7 @@
         <v>8198136.828176938</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27457,7 +26885,7 @@
         <v>8531117.421115179</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27490,7 +26918,7 @@
         <v>8103475.708753038</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27523,7 +26951,7 @@
         <v>8103475.708753038</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27556,7 +26984,7 @@
         <v>8103475.708753038</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27589,7 +27017,7 @@
         <v>8103475.708753038</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27622,7 +27050,7 @@
         <v>8660205.988454748</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27655,7 +27083,7 @@
         <v>8660205.988454748</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27688,7 +27116,7 @@
         <v>8650050.650910558</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27721,7 +27149,7 @@
         <v>8650050.650910558</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27754,7 +27182,7 @@
         <v>8650050.650910558</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27787,7 +27215,7 @@
         <v>8930603.041675398</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27820,7 +27248,7 @@
         <v>8930603.041675398</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27853,7 +27281,7 @@
         <v>8930603.041675398</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27886,7 +27314,7 @@
         <v>8930603.041675398</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27919,7 +27347,7 @@
         <v>8930603.041675398</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27952,7 +27380,7 @@
         <v>8888597.047675397</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27985,7 +27413,7 @@
         <v>8888597.047675397</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28018,7 +27446,7 @@
         <v>9011729.582775397</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28051,7 +27479,7 @@
         <v>9011729.582775397</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28084,7 +27512,7 @@
         <v>9011729.582775397</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28117,7 +27545,7 @@
         <v>8965251.649965767</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28150,7 +27578,7 @@
         <v>8965251.649965767</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28183,7 +27611,7 @@
         <v>8049229.936067477</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28216,7 +27644,7 @@
         <v>8049229.936067477</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28249,7 +27677,7 @@
         <v>7565669.537167476</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28282,7 +27710,7 @@
         <v>8461208.417567477</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28315,7 +27743,7 @@
         <v>7864386.094767476</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28348,7 +27776,7 @@
         <v>8242608.262831356</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28381,7 +27809,7 @@
         <v>8242608.262831356</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28414,7 +27842,7 @@
         <v>8242608.262831356</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28447,7 +27875,7 @@
         <v>7599524.707531356</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28480,7 +27908,7 @@
         <v>7599524.707531356</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28513,7 +27941,7 @@
         <v>7599524.707531356</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28546,7 +27974,7 @@
         <v>7739382.369831356</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28579,7 +28007,7 @@
         <v>6879592.040031357</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28612,7 +28040,7 @@
         <v>6535044.548331357</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28645,7 +28073,7 @@
         <v>6535044.548331357</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28678,7 +28106,7 @@
         <v>6535044.548331357</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28711,7 +28139,7 @@
         <v>6442006.068355276</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28810,7 +28238,7 @@
         <v>6537761.980611477</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28843,7 +28271,7 @@
         <v>6813658.124011477</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -31483,7 +30911,7 @@
         <v>6818525.642739759</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31813,7 +31241,7 @@
         <v>6840994.855767339</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31912,7 +31340,7 @@
         <v>8697872.13169165</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31945,7 +31373,7 @@
         <v>8944080.222201679</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31978,7 +31406,7 @@
         <v>8944080.222201679</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32011,7 +31439,7 @@
         <v>8944080.222201679</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32044,7 +31472,7 @@
         <v>8944080.222201679</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32077,7 +31505,7 @@
         <v>8904626.635015968</v>
       </c>
       <c r="H906" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32110,7 +31538,7 @@
         <v>8904626.635015968</v>
       </c>
       <c r="H907" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32143,7 +31571,7 @@
         <v>9556777.900773138</v>
       </c>
       <c r="H908" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32176,7 +31604,7 @@
         <v>9698936.193818437</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32209,7 +31637,7 @@
         <v>9697877.854818437</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32242,7 +31670,7 @@
         <v>9697877.854818437</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32275,7 +31703,7 @@
         <v>9820977.894018438</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32308,7 +31736,7 @@
         <v>9820977.894018438</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32341,7 +31769,7 @@
         <v>9462136.533818439</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32374,7 +31802,7 @@
         <v>9589782.189568428</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32407,7 +31835,7 @@
         <v>9589782.189568428</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32440,7 +31868,7 @@
         <v>9589782.189568428</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32473,7 +31901,7 @@
         <v>9589782.189568428</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32506,7 +31934,7 @@
         <v>9625959.180468429</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32605,7 +32033,7 @@
         <v>9244312.457211317</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32638,7 +32066,7 @@
         <v>9186228.583711317</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32671,7 +32099,7 @@
         <v>9209830.149111317</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32737,7 +32165,7 @@
         <v>9059203.026211318</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33001,7 +32429,7 @@
         <v>9548155.352741517</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33034,7 +32462,7 @@
         <v>9548155.352741517</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33232,7 +32660,7 @@
         <v>10283355.74080065</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33265,7 +32693,7 @@
         <v>10207780.46599156</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33298,7 +32726,7 @@
         <v>9423156.692262989</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33331,7 +32759,7 @@
         <v>8967430.470162988</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33364,7 +32792,7 @@
         <v>9013620.898362989</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33397,7 +32825,7 @@
         <v>8990984.275262989</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33430,7 +32858,7 @@
         <v>9034157.85506299</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33463,7 +32891,7 @@
         <v>9034157.85506299</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33496,7 +32924,7 @@
         <v>9034157.85506299</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33529,7 +32957,7 @@
         <v>9034157.85506299</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33562,7 +32990,7 @@
         <v>9034157.85506299</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33595,7 +33023,7 @@
         <v>8725859.11970585</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33628,7 +33056,7 @@
         <v>8725859.11970585</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33661,7 +33089,7 @@
         <v>8725859.11970585</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33694,7 +33122,7 @@
         <v>8725859.11970585</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33727,7 +33155,7 @@
         <v>8725859.11970585</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33760,7 +33188,7 @@
         <v>8835186.39610585</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33793,7 +33221,7 @@
         <v>8835186.39610585</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33826,7 +33254,7 @@
         <v>8827828.24962014</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33859,7 +33287,7 @@
         <v>8827828.24962014</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33892,7 +33320,7 @@
         <v>8867199.687405849</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33925,7 +33353,7 @@
         <v>8847737.906105848</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33958,7 +33386,7 @@
         <v>8847737.906105848</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33991,7 +33419,7 @@
         <v>8847737.906105848</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34024,7 +33452,7 @@
         <v>8847737.906105848</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34057,7 +33485,7 @@
         <v>8821315.087698407</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34090,7 +33518,7 @@
         <v>8838064.792993817</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34123,7 +33551,7 @@
         <v>8838064.792993817</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34156,7 +33584,7 @@
         <v>8736911.353193818</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34189,7 +33617,7 @@
         <v>8759567.196393818</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34222,7 +33650,7 @@
         <v>8576639.704493817</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34255,7 +33683,7 @@
         <v>8576639.704493817</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -36895,7 +36323,7 @@
         <v>7218295.887278869</v>
       </c>
       <c r="H1052" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -37126,7 +36554,7 @@
         <v>7218295.887278869</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37687,7 +37115,7 @@
         <v>6860852.747690339</v>
       </c>
       <c r="H1076" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -37720,7 +37148,7 @@
         <v>6860852.747690339</v>
       </c>
       <c r="H1077" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37753,7 +37181,7 @@
         <v>6634748.066990338</v>
       </c>
       <c r="H1078" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -37786,7 +37214,7 @@
         <v>6272355.675790338</v>
       </c>
       <c r="H1079" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -41812,11 +41240,17 @@
         <v>752733.0918864072</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>333</v>
+      </c>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -41849,7 +41283,11 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -41882,7 +41320,11 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -41915,7 +41357,11 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -41948,7 +41394,11 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -41981,7 +41431,11 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -42014,7 +41468,11 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -42047,7 +41505,11 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -42080,7 +41542,11 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -42113,7 +41579,11 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -42146,7 +41616,11 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -42179,7 +41653,11 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -42212,7 +41690,11 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -42245,7 +41727,11 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -42278,7 +41764,11 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -42311,7 +41801,11 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -42344,7 +41838,11 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -42377,7 +41875,11 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -42410,7 +41912,11 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -42443,7 +41949,11 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -42476,7 +41986,11 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -42509,7 +42023,11 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -42542,7 +42060,11 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -42575,7 +42097,11 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -42608,7 +42134,11 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -42641,7 +42171,11 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -42674,7 +42208,11 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -42707,7 +42245,11 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42740,7 +42282,11 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42773,7 +42319,11 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -42806,7 +42356,11 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -42839,7 +42393,11 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -42872,7 +42430,11 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -42905,7 +42467,11 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -42938,7 +42504,11 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -42971,7 +42541,11 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -43004,7 +42578,11 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -43037,7 +42615,11 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -43070,7 +42652,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -43103,7 +42689,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -43136,7 +42726,11 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -43169,7 +42763,11 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -43202,7 +42800,11 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -43235,7 +42837,11 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -43268,7 +42874,11 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -43301,7 +42911,11 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -43334,7 +42948,11 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -43367,7 +42985,11 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -43400,7 +43022,11 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -43433,7 +43059,11 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -43466,7 +43096,11 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr"/>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -43499,7 +43133,11 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -43532,7 +43170,11 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr"/>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -43565,7 +43207,11 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr"/>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -43598,7 +43244,11 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr"/>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -43631,7 +43281,11 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr"/>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -43664,7 +43318,11 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr"/>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -43697,7 +43355,11 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr"/>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -43730,7 +43392,11 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr"/>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -43763,7 +43429,11 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr"/>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -43796,7 +43466,11 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr"/>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -43829,7 +43503,11 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr"/>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -43862,7 +43540,11 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr"/>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -43895,7 +43577,11 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr"/>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -43928,7 +43614,11 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr"/>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -43961,7 +43651,11 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr"/>
+      <c r="K1266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -43994,7 +43688,11 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr"/>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -44027,7 +43725,11 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr"/>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -44060,7 +43762,11 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr"/>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -44093,7 +43799,11 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr"/>
+      <c r="K1270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -44126,7 +43836,11 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr"/>
+      <c r="K1271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -44159,7 +43873,11 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr"/>
+      <c r="K1272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -44192,7 +43910,11 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr"/>
+      <c r="K1273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -44225,7 +43947,11 @@
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr"/>
+      <c r="K1274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -44258,7 +43984,11 @@
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr"/>
+      <c r="K1275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -44291,7 +44021,11 @@
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr"/>
+      <c r="K1276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -44324,7 +44058,11 @@
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr"/>
+      <c r="K1277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -44357,7 +44095,11 @@
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr"/>
+      <c r="K1278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -44390,7 +44132,11 @@
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr"/>
+      <c r="K1279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -44423,7 +44169,11 @@
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr"/>
+      <c r="K1280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -44456,7 +44206,11 @@
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr"/>
+      <c r="K1281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -44489,7 +44243,11 @@
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
-      <c r="K1282" t="inlineStr"/>
+      <c r="K1282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -44522,7 +44280,11 @@
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
-      <c r="K1283" t="inlineStr"/>
+      <c r="K1283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
@@ -44555,7 +44317,11 @@
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
-      <c r="K1284" t="inlineStr"/>
+      <c r="K1284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1284" t="n">
         <v>1</v>
       </c>
@@ -44588,7 +44354,11 @@
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
-      <c r="K1285" t="inlineStr"/>
+      <c r="K1285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1285" t="n">
         <v>1</v>
       </c>
@@ -44621,7 +44391,11 @@
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
-      <c r="K1286" t="inlineStr"/>
+      <c r="K1286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1286" t="n">
         <v>1</v>
       </c>
@@ -44654,7 +44428,11 @@
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
-      <c r="K1287" t="inlineStr"/>
+      <c r="K1287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1287" t="n">
         <v>1</v>
       </c>
@@ -44687,7 +44465,11 @@
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
-      <c r="K1288" t="inlineStr"/>
+      <c r="K1288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1288" t="n">
         <v>1</v>
       </c>
@@ -44720,7 +44502,11 @@
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
-      <c r="K1289" t="inlineStr"/>
+      <c r="K1289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1289" t="n">
         <v>1</v>
       </c>
@@ -44753,7 +44539,11 @@
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
-      <c r="K1290" t="inlineStr"/>
+      <c r="K1290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1290" t="n">
         <v>1</v>
       </c>
@@ -44786,7 +44576,11 @@
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
-      <c r="K1291" t="inlineStr"/>
+      <c r="K1291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1291" t="n">
         <v>1</v>
       </c>
@@ -44819,7 +44613,11 @@
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
-      <c r="K1292" t="inlineStr"/>
+      <c r="K1292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1292" t="n">
         <v>1</v>
       </c>
@@ -44852,7 +44650,11 @@
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
-      <c r="K1293" t="inlineStr"/>
+      <c r="K1293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1293" t="n">
         <v>1</v>
       </c>
@@ -44885,7 +44687,11 @@
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
-      <c r="K1294" t="inlineStr"/>
+      <c r="K1294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1294" t="n">
         <v>1</v>
       </c>
@@ -44918,7 +44724,11 @@
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
-      <c r="K1295" t="inlineStr"/>
+      <c r="K1295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1295" t="n">
         <v>1</v>
       </c>
@@ -44951,7 +44761,11 @@
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
-      <c r="K1296" t="inlineStr"/>
+      <c r="K1296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1296" t="n">
         <v>1</v>
       </c>
@@ -44984,7 +44798,11 @@
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
-      <c r="K1297" t="inlineStr"/>
+      <c r="K1297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1297" t="n">
         <v>1</v>
       </c>
@@ -45017,7 +44835,11 @@
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
-      <c r="K1298" t="inlineStr"/>
+      <c r="K1298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1298" t="n">
         <v>1</v>
       </c>
@@ -45050,7 +44872,11 @@
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
-      <c r="K1299" t="inlineStr"/>
+      <c r="K1299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1299" t="n">
         <v>1</v>
       </c>
@@ -45083,7 +44909,11 @@
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
-      <c r="K1300" t="inlineStr"/>
+      <c r="K1300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1300" t="n">
         <v>1</v>
       </c>
@@ -45116,7 +44946,11 @@
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
-      <c r="K1301" t="inlineStr"/>
+      <c r="K1301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -45149,7 +44983,11 @@
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
-      <c r="K1302" t="inlineStr"/>
+      <c r="K1302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -45182,7 +45020,11 @@
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
-      <c r="K1303" t="inlineStr"/>
+      <c r="K1303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -45215,7 +45057,11 @@
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
-      <c r="K1304" t="inlineStr"/>
+      <c r="K1304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -45248,7 +45094,11 @@
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
-      <c r="K1305" t="inlineStr"/>
+      <c r="K1305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -45281,7 +45131,11 @@
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
-      <c r="K1306" t="inlineStr"/>
+      <c r="K1306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -45314,7 +45168,11 @@
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
-      <c r="K1307" t="inlineStr"/>
+      <c r="K1307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -45347,7 +45205,11 @@
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
-      <c r="K1308" t="inlineStr"/>
+      <c r="K1308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -45380,7 +45242,11 @@
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
-      <c r="K1309" t="inlineStr"/>
+      <c r="K1309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -45413,7 +45279,11 @@
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
-      <c r="K1310" t="inlineStr"/>
+      <c r="K1310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -45446,7 +45316,11 @@
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
-      <c r="K1311" t="inlineStr"/>
+      <c r="K1311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -45479,7 +45353,11 @@
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
-      <c r="K1312" t="inlineStr"/>
+      <c r="K1312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -45512,7 +45390,11 @@
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
-      <c r="K1313" t="inlineStr"/>
+      <c r="K1313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -45545,7 +45427,11 @@
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
-      <c r="K1314" t="inlineStr"/>
+      <c r="K1314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -45578,7 +45464,11 @@
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
-      <c r="K1315" t="inlineStr"/>
+      <c r="K1315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -45611,7 +45501,11 @@
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
-      <c r="K1316" t="inlineStr"/>
+      <c r="K1316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1316" t="n">
         <v>1</v>
       </c>
@@ -45644,7 +45538,11 @@
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
-      <c r="K1317" t="inlineStr"/>
+      <c r="K1317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1317" t="n">
         <v>1</v>
       </c>
@@ -45677,7 +45575,11 @@
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
-      <c r="K1318" t="inlineStr"/>
+      <c r="K1318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
@@ -45710,7 +45612,11 @@
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
-      <c r="K1319" t="inlineStr"/>
+      <c r="K1319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1319" t="n">
         <v>1</v>
       </c>
@@ -45743,7 +45649,11 @@
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
-      <c r="K1320" t="inlineStr"/>
+      <c r="K1320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1320" t="n">
         <v>1</v>
       </c>
@@ -45776,7 +45686,11 @@
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
-      <c r="K1321" t="inlineStr"/>
+      <c r="K1321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1321" t="n">
         <v>1</v>
       </c>
@@ -45809,7 +45723,11 @@
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
-      <c r="K1322" t="inlineStr"/>
+      <c r="K1322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1322" t="n">
         <v>1</v>
       </c>
@@ -45842,7 +45760,11 @@
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
-      <c r="K1323" t="inlineStr"/>
+      <c r="K1323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1323" t="n">
         <v>1</v>
       </c>
@@ -45875,7 +45797,11 @@
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
-      <c r="K1324" t="inlineStr"/>
+      <c r="K1324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1324" t="n">
         <v>1</v>
       </c>
@@ -45908,7 +45834,11 @@
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
-      <c r="K1325" t="inlineStr"/>
+      <c r="K1325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1325" t="n">
         <v>1</v>
       </c>
@@ -45941,7 +45871,11 @@
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
-      <c r="K1326" t="inlineStr"/>
+      <c r="K1326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1326" t="n">
         <v>1</v>
       </c>
@@ -45974,7 +45908,11 @@
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
-      <c r="K1327" t="inlineStr"/>
+      <c r="K1327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1327" t="n">
         <v>1</v>
       </c>
@@ -46007,7 +45945,11 @@
       </c>
       <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
-      <c r="K1328" t="inlineStr"/>
+      <c r="K1328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1328" t="n">
         <v>1</v>
       </c>
@@ -46040,7 +45982,11 @@
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
-      <c r="K1329" t="inlineStr"/>
+      <c r="K1329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1329" t="n">
         <v>1</v>
       </c>
@@ -46073,7 +46019,11 @@
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
-      <c r="K1330" t="inlineStr"/>
+      <c r="K1330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1330" t="n">
         <v>1</v>
       </c>
@@ -46106,7 +46056,11 @@
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
-      <c r="K1331" t="inlineStr"/>
+      <c r="K1331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1331" t="n">
         <v>1</v>
       </c>
@@ -46139,7 +46093,11 @@
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
-      <c r="K1332" t="inlineStr"/>
+      <c r="K1332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1332" t="n">
         <v>1</v>
       </c>
@@ -46172,7 +46130,11 @@
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
-      <c r="K1333" t="inlineStr"/>
+      <c r="K1333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1333" t="n">
         <v>1</v>
       </c>
@@ -46205,7 +46167,11 @@
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
-      <c r="K1334" t="inlineStr"/>
+      <c r="K1334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1334" t="n">
         <v>1</v>
       </c>
@@ -46238,7 +46204,11 @@
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
-      <c r="K1335" t="inlineStr"/>
+      <c r="K1335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1335" t="n">
         <v>1</v>
       </c>
@@ -46271,7 +46241,11 @@
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
-      <c r="K1336" t="inlineStr"/>
+      <c r="K1336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1336" t="n">
         <v>1</v>
       </c>
@@ -46304,7 +46278,11 @@
       </c>
       <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
-      <c r="K1337" t="inlineStr"/>
+      <c r="K1337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1337" t="n">
         <v>1</v>
       </c>
@@ -46337,7 +46315,11 @@
       </c>
       <c r="I1338" t="inlineStr"/>
       <c r="J1338" t="inlineStr"/>
-      <c r="K1338" t="inlineStr"/>
+      <c r="K1338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1338" t="n">
         <v>1</v>
       </c>
@@ -46370,7 +46352,11 @@
       </c>
       <c r="I1339" t="inlineStr"/>
       <c r="J1339" t="inlineStr"/>
-      <c r="K1339" t="inlineStr"/>
+      <c r="K1339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1339" t="n">
         <v>1</v>
       </c>
@@ -46403,7 +46389,11 @@
       </c>
       <c r="I1340" t="inlineStr"/>
       <c r="J1340" t="inlineStr"/>
-      <c r="K1340" t="inlineStr"/>
+      <c r="K1340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1340" t="n">
         <v>1</v>
       </c>
@@ -46436,7 +46426,11 @@
       </c>
       <c r="I1341" t="inlineStr"/>
       <c r="J1341" t="inlineStr"/>
-      <c r="K1341" t="inlineStr"/>
+      <c r="K1341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1341" t="n">
         <v>1</v>
       </c>
@@ -46469,7 +46463,11 @@
       </c>
       <c r="I1342" t="inlineStr"/>
       <c r="J1342" t="inlineStr"/>
-      <c r="K1342" t="inlineStr"/>
+      <c r="K1342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1342" t="n">
         <v>1</v>
       </c>
@@ -46502,7 +46500,11 @@
       </c>
       <c r="I1343" t="inlineStr"/>
       <c r="J1343" t="inlineStr"/>
-      <c r="K1343" t="inlineStr"/>
+      <c r="K1343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1343" t="n">
         <v>1</v>
       </c>
@@ -46535,7 +46537,11 @@
       </c>
       <c r="I1344" t="inlineStr"/>
       <c r="J1344" t="inlineStr"/>
-      <c r="K1344" t="inlineStr"/>
+      <c r="K1344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1344" t="n">
         <v>1</v>
       </c>
@@ -46568,7 +46574,11 @@
       </c>
       <c r="I1345" t="inlineStr"/>
       <c r="J1345" t="inlineStr"/>
-      <c r="K1345" t="inlineStr"/>
+      <c r="K1345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1345" t="n">
         <v>1</v>
       </c>
@@ -46601,7 +46611,11 @@
       </c>
       <c r="I1346" t="inlineStr"/>
       <c r="J1346" t="inlineStr"/>
-      <c r="K1346" t="inlineStr"/>
+      <c r="K1346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1346" t="n">
         <v>1</v>
       </c>
@@ -46634,7 +46648,11 @@
       </c>
       <c r="I1347" t="inlineStr"/>
       <c r="J1347" t="inlineStr"/>
-      <c r="K1347" t="inlineStr"/>
+      <c r="K1347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1347" t="n">
         <v>1</v>
       </c>
@@ -46667,7 +46685,11 @@
       </c>
       <c r="I1348" t="inlineStr"/>
       <c r="J1348" t="inlineStr"/>
-      <c r="K1348" t="inlineStr"/>
+      <c r="K1348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1348" t="n">
         <v>1</v>
       </c>
@@ -46700,7 +46722,11 @@
       </c>
       <c r="I1349" t="inlineStr"/>
       <c r="J1349" t="inlineStr"/>
-      <c r="K1349" t="inlineStr"/>
+      <c r="K1349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1349" t="n">
         <v>1</v>
       </c>
@@ -46733,7 +46759,11 @@
       </c>
       <c r="I1350" t="inlineStr"/>
       <c r="J1350" t="inlineStr"/>
-      <c r="K1350" t="inlineStr"/>
+      <c r="K1350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1350" t="n">
         <v>1</v>
       </c>
@@ -46766,7 +46796,11 @@
       </c>
       <c r="I1351" t="inlineStr"/>
       <c r="J1351" t="inlineStr"/>
-      <c r="K1351" t="inlineStr"/>
+      <c r="K1351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1351" t="n">
         <v>1</v>
       </c>
@@ -46799,7 +46833,11 @@
       </c>
       <c r="I1352" t="inlineStr"/>
       <c r="J1352" t="inlineStr"/>
-      <c r="K1352" t="inlineStr"/>
+      <c r="K1352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1352" t="n">
         <v>1</v>
       </c>
@@ -46832,7 +46870,11 @@
       </c>
       <c r="I1353" t="inlineStr"/>
       <c r="J1353" t="inlineStr"/>
-      <c r="K1353" t="inlineStr"/>
+      <c r="K1353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1353" t="n">
         <v>1</v>
       </c>
@@ -46865,7 +46907,11 @@
       </c>
       <c r="I1354" t="inlineStr"/>
       <c r="J1354" t="inlineStr"/>
-      <c r="K1354" t="inlineStr"/>
+      <c r="K1354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1354" t="n">
         <v>1</v>
       </c>
@@ -46898,7 +46944,11 @@
       </c>
       <c r="I1355" t="inlineStr"/>
       <c r="J1355" t="inlineStr"/>
-      <c r="K1355" t="inlineStr"/>
+      <c r="K1355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1355" t="n">
         <v>1</v>
       </c>
@@ -46931,13 +46981,17 @@
       </c>
       <c r="I1356" t="inlineStr"/>
       <c r="J1356" t="inlineStr"/>
-      <c r="K1356" t="inlineStr"/>
+      <c r="K1356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1356" t="n">
         <v>1</v>
       </c>
       <c r="M1356" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest XRP.xlsx
+++ b/BackTest/2019-10-26 BackTest XRP.xlsx
@@ -451,7 +451,7 @@
         <v>-447077.6100428699</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1381,11 +1381,9 @@
         <v>-328886.1192826099</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1420,11 +1418,9 @@
         <v>-328886.1192826099</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1459,11 +1455,9 @@
         <v>-314708.1613826099</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1576,11 +1570,9 @@
         <v>-298506.6277826099</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1615,11 +1607,9 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1654,11 +1644,9 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1693,11 +1681,9 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1888,11 +1874,9 @@
         <v>-314647.8525738999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1927,11 +1911,9 @@
         <v>-486935.9956738999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -2083,11 +2065,9 @@
         <v>-472063.5684738999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -4462,11 +4442,9 @@
         <v>-500743.43435619</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -5722,16 +5700,18 @@
         <v>3842604.81145287</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
       <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
@@ -5757,11 +5737,15 @@
         <v>2988939.51025287</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5790,11 +5774,15 @@
         <v>1621214.62470315</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5823,11 +5811,15 @@
         <v>2030417.35100315</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5856,11 +5848,15 @@
         <v>2030417.35100315</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5889,11 +5885,15 @@
         <v>1515781.77127454</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5926,7 +5926,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5959,7 +5963,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5988,11 +5996,15 @@
         <v>2031457.57424593</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6021,11 +6033,15 @@
         <v>2266065.85584593</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6054,11 +6070,15 @@
         <v>2866838.02943543</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6087,11 +6107,15 @@
         <v>2866838.02943543</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6120,11 +6144,15 @@
         <v>2650110.04863543</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6153,11 +6181,15 @@
         <v>2650110.04863543</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6190,7 +6222,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6223,7 +6259,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6256,7 +6296,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6289,7 +6333,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6322,7 +6370,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6355,7 +6407,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6388,7 +6444,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6417,11 +6477,15 @@
         <v>2358720.19549336</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6450,11 +6514,15 @@
         <v>2358720.19549336</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6483,11 +6551,15 @@
         <v>3467377.02549336</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6516,11 +6588,15 @@
         <v>3191360.172793359</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6549,11 +6625,15 @@
         <v>3348053.99369336</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6582,11 +6662,15 @@
         <v>3940942.71789336</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6615,11 +6699,15 @@
         <v>3732760.70399336</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6648,11 +6736,15 @@
         <v>4030796.924993359</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6681,11 +6773,15 @@
         <v>3744935.365136509</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6714,11 +6810,15 @@
         <v>3744935.365136509</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6747,11 +6847,15 @@
         <v>3069558.697936509</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6780,11 +6884,15 @@
         <v>3069558.697936509</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6813,11 +6921,15 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6846,11 +6958,15 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6879,11 +6995,15 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6912,11 +7032,15 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6945,11 +7069,15 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6978,11 +7106,15 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7011,11 +7143,15 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7044,11 +7180,15 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7077,11 +7217,15 @@
         <v>3277725.57100952</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7110,11 +7254,15 @@
         <v>3546353.129217709</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7147,7 +7295,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7176,11 +7328,15 @@
         <v>3134998.19851771</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7369,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7246,7 +7406,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7279,7 +7443,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7312,7 +7480,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7345,7 +7517,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7378,7 +7554,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7411,7 +7591,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7444,7 +7628,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7477,7 +7665,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7506,11 +7698,15 @@
         <v>6841165.202581599</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7539,11 +7735,15 @@
         <v>6228560.788180459</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7572,11 +7772,15 @@
         <v>6228560.788180459</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7605,11 +7809,15 @@
         <v>6228560.788180459</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7638,11 +7846,15 @@
         <v>6442039.383802359</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7671,11 +7883,15 @@
         <v>6254644.653002359</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7704,11 +7920,15 @@
         <v>6254644.653002359</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7737,11 +7957,15 @@
         <v>6254644.653002359</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7770,11 +7994,15 @@
         <v>6518079.488602359</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7803,11 +8031,15 @@
         <v>6576181.540464419</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7836,11 +8068,15 @@
         <v>6161492.512164419</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7869,11 +8105,15 @@
         <v>6161492.512164419</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7902,11 +8142,15 @@
         <v>6161492.512164419</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7935,11 +8179,15 @@
         <v>6094380.794864419</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7968,11 +8216,15 @@
         <v>6094380.794864419</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8001,11 +8253,15 @@
         <v>6599095.696764419</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8034,11 +8290,15 @@
         <v>6599095.696764419</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8067,11 +8327,15 @@
         <v>7196441.264464419</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8100,11 +8364,15 @@
         <v>8666142.989264419</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8133,11 +8401,15 @@
         <v>8666142.989264419</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8166,11 +8438,15 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8199,11 +8475,15 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8232,11 +8512,15 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8265,11 +8549,15 @@
         <v>10445372.37926442</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8298,11 +8586,15 @@
         <v>11344881.37383715</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8331,11 +8623,15 @@
         <v>10768313.65483715</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8364,11 +8660,15 @@
         <v>10427753.13103715</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8397,11 +8697,15 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8430,11 +8734,15 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8463,11 +8771,15 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8496,11 +8808,15 @@
         <v>10980881.89613715</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8529,11 +8845,15 @@
         <v>11161404.33933715</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8562,11 +8882,15 @@
         <v>10468970.54933715</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8595,11 +8919,15 @@
         <v>10515154.36733715</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8628,11 +8956,15 @@
         <v>10376389.33023715</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8661,11 +8993,15 @@
         <v>11280196.81523715</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8694,11 +9030,15 @@
         <v>12807884.04573715</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8727,14 +9067,16 @@
         <v>12807884.04573715</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
@@ -8826,7 +9168,7 @@
         <v>8632718.149252098</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8958,7 +9300,7 @@
         <v>8498284.188052097</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8991,7 +9333,7 @@
         <v>8498284.188052097</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9024,7 +9366,7 @@
         <v>8315846.055970497</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9057,7 +9399,7 @@
         <v>7651786.842870497</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9090,7 +9432,7 @@
         <v>6726910.595170497</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9123,7 +9465,7 @@
         <v>6726910.595170497</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9156,7 +9498,7 @@
         <v>5520935.467870497</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -10806,7 +11148,7 @@
         <v>5114663.305231365</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10839,7 +11181,7 @@
         <v>5114663.305231365</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10872,7 +11214,7 @@
         <v>5138064.239131365</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10905,7 +11247,7 @@
         <v>5066389.318531365</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10938,7 +11280,7 @@
         <v>5080493.746231365</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10971,7 +11313,7 @@
         <v>5080493.746231365</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11004,7 +11346,7 @@
         <v>5087376.385883525</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11037,7 +11379,7 @@
         <v>4920975.832283525</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11070,7 +11412,7 @@
         <v>4938322.120983525</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11103,7 +11445,7 @@
         <v>4845054.090383525</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11136,7 +11478,7 @@
         <v>4845054.090383525</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11169,7 +11511,7 @@
         <v>4610101.029183525</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11202,7 +11544,7 @@
         <v>4619906.312783524</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11235,7 +11577,7 @@
         <v>4611794.529783525</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11433,7 +11775,7 @@
         <v>4700328.874483524</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11466,7 +11808,7 @@
         <v>4700328.874483524</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11499,7 +11841,7 @@
         <v>4700328.874483524</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11532,7 +11874,7 @@
         <v>4700328.874483524</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11565,7 +11907,7 @@
         <v>4685844.022683524</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11631,7 +11973,7 @@
         <v>4679131.011283523</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11664,7 +12006,7 @@
         <v>4679131.011283523</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11697,7 +12039,7 @@
         <v>4679131.011283523</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11763,7 +12105,7 @@
         <v>4565868.193383524</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11796,7 +12138,7 @@
         <v>4465219.052183524</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -14832,7 +15174,7 @@
         <v>4207327.332754237</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14865,7 +15207,7 @@
         <v>4211107.022054236</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14997,7 +15339,7 @@
         <v>4166958.928179836</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15096,7 +15438,7 @@
         <v>4166958.928179836</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15690,7 +16032,7 @@
         <v>4700202.071635038</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15723,7 +16065,7 @@
         <v>4700202.071635038</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15756,7 +16098,7 @@
         <v>4700202.071635038</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15789,7 +16131,7 @@
         <v>4685245.076335038</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15822,7 +16164,7 @@
         <v>4687956.730235038</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16416,7 +16758,7 @@
         <v>4572898.165535038</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16449,7 +16791,7 @@
         <v>4451196.862935038</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18165,7 +18507,7 @@
         <v>4883009.004387149</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18198,7 +18540,7 @@
         <v>4886836.409980799</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18231,7 +18573,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18264,7 +18606,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18297,7 +18639,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18330,7 +18672,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18363,7 +18705,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18396,7 +18738,7 @@
         <v>4798379.740680799</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18429,7 +18771,7 @@
         <v>4818340.728880798</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18462,7 +18804,7 @@
         <v>4799324.297007889</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18495,7 +18837,7 @@
         <v>4799324.297007889</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18528,7 +18870,7 @@
         <v>4812133.124007888</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18561,7 +18903,7 @@
         <v>4812133.124007888</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18594,7 +18936,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18627,7 +18969,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18660,7 +19002,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18693,7 +19035,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18726,7 +19068,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18759,7 +19101,7 @@
         <v>4794966.624339879</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18792,7 +19134,7 @@
         <v>5004190.865907028</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18825,7 +19167,7 @@
         <v>5004190.865907028</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18858,7 +19200,7 @@
         <v>5004190.865907028</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18891,7 +19233,7 @@
         <v>5022057.640107028</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18924,7 +19266,7 @@
         <v>4902756.487807028</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18957,7 +19299,7 @@
         <v>4902756.487807028</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18990,7 +19332,7 @@
         <v>4902756.487807028</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19155,7 +19497,7 @@
         <v>4834522.348456487</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19254,7 +19596,7 @@
         <v>4837005.328156487</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19287,7 +19629,7 @@
         <v>4837005.328156487</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19320,7 +19662,7 @@
         <v>4837005.328156487</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21201,7 +21543,7 @@
         <v>4705335.501297968</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21267,7 +21609,7 @@
         <v>4705194.854766168</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21729,7 +22071,7 @@
         <v>4803461.755260358</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21762,7 +22104,7 @@
         <v>4803461.755260358</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21795,7 +22137,7 @@
         <v>4811245.318260358</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21828,7 +22170,7 @@
         <v>4803883.059413098</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21861,7 +22203,7 @@
         <v>5033497.666713098</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21894,7 +22236,7 @@
         <v>5033497.666713098</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21927,7 +22269,7 @@
         <v>5033497.666713098</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21960,7 +22302,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21993,7 +22335,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22026,7 +22368,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22059,7 +22401,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22092,7 +22434,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22125,7 +22467,7 @@
         <v>4996221.975613098</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22158,7 +22500,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22191,7 +22533,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22257,7 +22599,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22290,7 +22632,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22323,7 +22665,7 @@
         <v>4810482.110613097</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22851,7 +23193,7 @@
         <v>5478883.688362138</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23940,7 +24282,7 @@
         <v>6016284.101979728</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24468,7 +24810,7 @@
         <v>9198675.603919359</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24501,7 +24843,7 @@
         <v>9198675.603919359</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24534,7 +24876,7 @@
         <v>9157141.594423288</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24600,7 +24942,7 @@
         <v>9900041.838523289</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24633,7 +24975,7 @@
         <v>9900041.838523289</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24666,7 +25008,7 @@
         <v>11110662.68763052</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24699,7 +25041,7 @@
         <v>9309574.527001768</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24732,7 +25074,7 @@
         <v>8843723.610901769</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24765,7 +25107,7 @@
         <v>9236486.338072348</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24798,7 +25140,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24831,7 +25173,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24864,7 +25206,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24897,7 +25239,7 @@
         <v>9018078.267272348</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24930,7 +25272,7 @@
         <v>8479374.556872347</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24963,7 +25305,7 @@
         <v>9031687.580372347</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24996,7 +25338,7 @@
         <v>8098932.124072347</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25029,7 +25371,7 @@
         <v>8098932.124072347</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25128,7 +25470,7 @@
         <v>8954159.903672347</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25161,7 +25503,7 @@
         <v>8954159.903672347</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25194,7 +25536,7 @@
         <v>8274496.824472347</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25227,7 +25569,7 @@
         <v>7388880.482935737</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25260,7 +25602,7 @@
         <v>7005592.746968137</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25293,7 +25635,7 @@
         <v>8680734.598076006</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25326,7 +25668,7 @@
         <v>8680734.598076006</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25359,7 +25701,7 @@
         <v>7882061.280661927</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25392,7 +25734,7 @@
         <v>6981573.687522947</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25425,7 +25767,7 @@
         <v>7861398.924371527</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25458,7 +25800,7 @@
         <v>6767998.960040087</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25656,7 +25998,7 @@
         <v>6853442.579384917</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25887,7 +26229,7 @@
         <v>9380868.831635706</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25920,7 +26262,7 @@
         <v>9742370.341006286</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25953,7 +26295,7 @@
         <v>9136721.767635897</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25986,7 +26328,7 @@
         <v>8905976.256435897</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26019,7 +26361,7 @@
         <v>9417099.730735898</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26052,7 +26394,7 @@
         <v>8675209.532031408</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26085,7 +26427,7 @@
         <v>9249234.797331408</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26118,7 +26460,7 @@
         <v>8807666.965931408</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26151,7 +26493,7 @@
         <v>9031773.974931408</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26184,7 +26526,7 @@
         <v>8004660.160296198</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26217,7 +26559,7 @@
         <v>8004660.160296198</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26250,7 +26592,7 @@
         <v>8352071.536296198</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26316,7 +26658,7 @@
         <v>8198136.828176938</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26349,7 +26691,7 @@
         <v>8198136.828176938</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26613,7 +26955,7 @@
         <v>8660205.988454748</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26646,7 +26988,7 @@
         <v>8650050.650910558</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26679,7 +27021,7 @@
         <v>8650050.650910558</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26811,7 +27153,7 @@
         <v>8930603.041675398</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26844,7 +27186,7 @@
         <v>8930603.041675398</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26877,7 +27219,7 @@
         <v>8930603.041675398</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26910,7 +27252,7 @@
         <v>8888597.047675397</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27042,7 +27384,7 @@
         <v>9011729.582775397</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -29583,7 +29925,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -29649,7 +29991,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -29682,7 +30024,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -29715,7 +30057,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29748,7 +30090,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29781,7 +30123,7 @@
         <v>6709153.814639759</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29814,7 +30156,7 @@
         <v>6842648.694439759</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29847,7 +30189,7 @@
         <v>6808741.832039759</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29880,7 +30222,7 @@
         <v>6812087.87203976</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29913,7 +30255,7 @@
         <v>6812087.87203976</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29946,7 +30288,7 @@
         <v>6809663.016839759</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29979,7 +30321,7 @@
         <v>6809663.016839759</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30012,7 +30354,7 @@
         <v>6809663.016839759</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30045,7 +30387,7 @@
         <v>6875851.55843976</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -42222,7 +42564,7 @@
         <v>2618129.036030598</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
@@ -42255,7 +42597,7 @@
         <v>2618129.036030598</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
